--- a/processed_data/handcoded_cleaned/Babylab_WesternSydney_12-15m_mono_GF_Trial.xlsx
+++ b/processed_data/handcoded_cleaned/Babylab_WesternSydney_12-15m_mono_GF_Trial.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21301"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2d44\AC\Temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD92A8EF-B685-40BF-B2B7-59050E8C8072}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="10515" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="40" windowWidth="18480" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -61,9 +58,6 @@
     <t>fixation_congruent</t>
   </si>
   <si>
-    <t>fixation_incongrent</t>
-  </si>
-  <si>
     <t>trial_error</t>
   </si>
   <si>
@@ -176,13 +170,16 @@
   </si>
   <si>
     <t>Repositioning baby during trial</t>
+  </si>
+  <si>
+    <t>fixation_incongruent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,17 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -598,21 +597,21 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>8502</v>
@@ -621,13 +620,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>4.2759999999999998</v>
@@ -645,15 +644,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>8502</v>
@@ -662,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
       <c r="G3">
         <v>1.698</v>
@@ -686,15 +685,15 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>8502</v>
@@ -703,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>1.8440000000000001</v>
@@ -727,15 +726,15 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>8502</v>
@@ -744,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>3.9849999999999999</v>
@@ -768,15 +767,15 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>8502</v>
@@ -785,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>4.0369999999999999</v>
@@ -809,15 +808,15 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>8502</v>
@@ -826,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>0.88</v>
@@ -850,15 +849,15 @@
         <v>3.2309999999999999</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>8772</v>
@@ -867,13 +866,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>1.8089999999999999</v>
@@ -891,15 +890,15 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8772</v>
@@ -908,13 +907,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>2.9180000000000001</v>
@@ -932,15 +931,15 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8772</v>
@@ -949,16 +948,16 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -973,15 +972,15 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>8772</v>
@@ -990,13 +989,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>1.696</v>
@@ -1014,15 +1013,15 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>8772</v>
@@ -1031,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>3.2629999999999999</v>
@@ -1055,15 +1054,15 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>8772</v>
@@ -1072,13 +1071,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>1.2789999999999999</v>
@@ -1096,15 +1095,15 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>8734</v>
@@ -1113,13 +1112,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>2.6629999999999998</v>
@@ -1137,15 +1136,15 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>8734</v>
@@ -1154,13 +1153,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>1.587</v>
@@ -1178,15 +1177,15 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>8734</v>
@@ -1195,13 +1194,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1219,15 +1218,15 @@
         <v>1.2390000000000001</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>8734</v>
@@ -1236,13 +1235,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>3.6070000000000002</v>
@@ -1260,15 +1259,15 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>8734</v>
@@ -1277,13 +1276,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>0.84199999999999997</v>
@@ -1301,15 +1300,15 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>8734</v>
@@ -1318,13 +1317,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1342,15 +1341,15 @@
         <v>2.2829999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>8399</v>
@@ -1359,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>2.77</v>
@@ -1383,15 +1382,15 @@
         <v>3.1869999999999998</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>8399</v>
@@ -1400,13 +1399,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>1.292</v>
@@ -1424,15 +1423,15 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>8399</v>
@@ -1441,13 +1440,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>2.1019999999999999</v>
@@ -1465,15 +1464,15 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>8399</v>
@@ -1482,24 +1481,24 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s">
         <v>41</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>42</v>
-      </c>
-      <c r="N23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>8399</v>
@@ -1508,13 +1507,13 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1532,15 +1531,15 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>8399</v>
@@ -1549,13 +1548,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1573,15 +1572,15 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>8783</v>
@@ -1590,13 +1589,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1614,15 +1613,15 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>8783</v>
@@ -1631,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27">
         <v>2.1320000000000001</v>
@@ -1655,15 +1654,15 @@
         <v>2.93</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>8783</v>
@@ -1672,13 +1671,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1696,15 +1695,15 @@
         <v>3.92</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>8783</v>
@@ -1713,13 +1712,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29">
         <v>2.657</v>
@@ -1737,15 +1736,15 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>8783</v>
@@ -1754,13 +1753,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30">
         <v>2.286</v>
@@ -1778,15 +1777,15 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>8783</v>
@@ -1795,13 +1794,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1819,15 +1818,15 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>8731</v>
@@ -1836,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32">
         <v>2.6309999999999998</v>
@@ -1860,15 +1859,15 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>8731</v>
@@ -1877,13 +1876,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>2.08</v>
@@ -1901,15 +1900,15 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>8731</v>
@@ -1918,13 +1917,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1942,15 +1941,15 @@
         <v>1.9039999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>8731</v>
@@ -1959,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35">
         <v>1.9610000000000001</v>
@@ -1983,15 +1982,15 @@
         <v>3.3959999999999999</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>8731</v>
@@ -2000,13 +1999,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <v>1.5209999999999999</v>
@@ -2024,15 +2023,15 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>8731</v>
@@ -2041,16 +2040,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2065,30 +2064,30 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <v>3.6259999999999999</v>
@@ -2106,30 +2105,30 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <v>3.355</v>
@@ -2147,33 +2146,33 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2188,30 +2187,30 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41">
         <v>4.2910000000000004</v>
@@ -2229,33 +2228,33 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2270,33 +2269,33 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2311,30 +2310,30 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44">
         <v>3.9609999999999999</v>
@@ -2352,33 +2351,33 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2393,33 +2392,33 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2434,30 +2433,30 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <v>2.9289999999999998</v>
@@ -2475,30 +2474,30 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48">
         <v>3.7280000000000002</v>
@@ -2516,30 +2515,30 @@
         <v>1.004</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49">
         <v>3.339</v>
@@ -2557,15 +2556,15 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>8743</v>
@@ -2574,13 +2573,13 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50">
         <v>2.2250000000000001</v>
@@ -2598,15 +2597,15 @@
         <v>3.738</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>8743</v>
@@ -2615,13 +2614,13 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51">
         <v>1.8819999999999999</v>
@@ -2639,15 +2638,15 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="L51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>8743</v>
@@ -2656,13 +2655,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52">
         <v>1.89</v>
@@ -2680,15 +2679,15 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>8743</v>
@@ -2697,13 +2696,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2721,15 +2720,15 @@
         <v>2.556</v>
       </c>
       <c r="L53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>8743</v>
@@ -2738,13 +2737,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <v>1.8480000000000001</v>
@@ -2762,15 +2761,15 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>8743</v>
@@ -2779,13 +2778,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>2.1619999999999999</v>
@@ -2803,15 +2802,15 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>8721</v>
@@ -2820,13 +2819,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56">
         <v>1.6879999999999999</v>
@@ -2844,15 +2843,15 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>8721</v>
@@ -2861,13 +2860,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
         <v>19</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
       </c>
       <c r="G57">
         <v>3.4020000000000001</v>
@@ -2885,15 +2884,15 @@
         <v>1.7110000000000001</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>8721</v>
@@ -2902,13 +2901,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58">
         <v>2.1280000000000001</v>
@@ -2926,15 +2925,15 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>8721</v>
@@ -2943,21 +2942,21 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
       <c r="L59" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" t="s">
         <v>41</v>
-      </c>
-      <c r="M59" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>8721</v>
@@ -2966,13 +2965,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60">
         <v>1.9379999999999999</v>
@@ -2990,15 +2989,15 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <v>8721</v>
@@ -3007,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61">
         <v>1.7689999999999999</v>
@@ -3031,15 +3030,15 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>8806</v>
@@ -3048,13 +3047,13 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62">
         <v>1.2390000000000001</v>
@@ -3072,15 +3071,15 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <v>8806</v>
@@ -3089,16 +3088,16 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3113,15 +3112,15 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
         <v>8806</v>
@@ -3130,13 +3129,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64">
         <v>1.284</v>
@@ -3154,15 +3153,15 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>8806</v>
@@ -3171,16 +3170,16 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3195,18 +3194,18 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>8806</v>
@@ -3215,16 +3214,16 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3239,15 +3238,15 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>8806</v>
@@ -3256,13 +3255,13 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67">
         <v>3.0129999999999999</v>
@@ -3280,15 +3279,15 @@
         <v>1.8109999999999999</v>
       </c>
       <c r="L67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>8767</v>
@@ -3297,16 +3296,16 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3321,15 +3320,15 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>8767</v>
@@ -3338,16 +3337,16 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3362,15 +3361,15 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>8767</v>
@@ -3379,13 +3378,13 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70">
         <v>3.843</v>
@@ -3403,15 +3402,15 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>8767</v>
@@ -3420,13 +3419,13 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E71">
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71">
         <v>3.01</v>
@@ -3444,15 +3443,15 @@
         <v>1.4079999999999999</v>
       </c>
       <c r="L71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>8767</v>
@@ -3461,16 +3460,16 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E72">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3485,15 +3484,15 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>8767</v>
@@ -3502,13 +3501,13 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73">
         <v>1.276</v>
@@ -3526,15 +3525,15 @@
         <v>0.998</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>1882</v>
@@ -3543,16 +3542,16 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3567,15 +3566,15 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75">
         <v>1882</v>
@@ -3584,13 +3583,13 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75">
         <v>1.8009999999999999</v>
@@ -3608,15 +3607,15 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76">
         <v>1882</v>
@@ -3625,13 +3624,13 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76">
         <v>1.718</v>
@@ -3649,15 +3648,15 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77">
         <v>1882</v>
@@ -3666,13 +3665,13 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3690,15 +3689,15 @@
         <v>2.7429999999999999</v>
       </c>
       <c r="L77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>1882</v>
@@ -3707,13 +3706,13 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E78">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G78">
         <v>1.5589999999999999</v>
@@ -3731,15 +3730,15 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>1882</v>
@@ -3748,13 +3747,13 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79">
         <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79">
         <v>1.631</v>
@@ -3772,15 +3771,15 @@
         <v>0.36299999999999999</v>
       </c>
       <c r="L79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80">
         <v>1920</v>
@@ -3789,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80">
         <v>3.3969999999999998</v>
@@ -3813,15 +3812,15 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>1920</v>
@@ -3830,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G81">
         <v>1.9259999999999999</v>
@@ -3854,15 +3853,15 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>1920</v>
@@ -3871,13 +3870,13 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82">
         <v>2.375</v>
@@ -3895,15 +3894,15 @@
         <v>2.3439999999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>1920</v>
@@ -3912,16 +3911,16 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3936,15 +3935,15 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>1920</v>
@@ -3953,13 +3952,13 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84">
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G84">
         <v>4.7080000000000002</v>
@@ -3977,15 +3976,15 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>1920</v>
@@ -3994,13 +3993,13 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85">
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G85">
         <v>1.6060000000000001</v>
@@ -4018,15 +4017,15 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="L85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>1255</v>
@@ -4035,13 +4034,13 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G86">
         <v>1.599</v>
@@ -4059,15 +4058,15 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>1255</v>
@@ -4076,13 +4075,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87">
         <v>1.0089999999999999</v>
@@ -4100,15 +4099,15 @@
         <v>1.167</v>
       </c>
       <c r="L87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>1255</v>
@@ -4117,13 +4116,13 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G88">
         <v>1.034</v>
@@ -4141,15 +4140,15 @@
         <v>1.5880000000000001</v>
       </c>
       <c r="L88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>1255</v>
@@ -4158,13 +4157,13 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E89">
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G89">
         <v>1.17</v>
@@ -4182,15 +4181,15 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="L89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>1255</v>
@@ -4199,13 +4198,13 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90">
         <v>0.76500000000000001</v>
@@ -4223,15 +4222,15 @@
         <v>0.36</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>1255</v>
@@ -4240,13 +4239,13 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91">
         <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G91">
         <v>1.5509999999999999</v>
@@ -4264,37 +4263,52 @@
         <v>1.379</v>
       </c>
       <c r="L91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>